--- a/Tasks_Examples.xlsx
+++ b/Tasks_Examples.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26815"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/davernn0376_masseyhigh_school_nz/Documents/2023 COM201/Programming/03_Assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="349" documentId="8_{3E261E29-A1DC-4AC7-9AE9-7BE6C2A75354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8FFD849-F578-43FC-A807-2D43BABCD371}"/>
+  <xr:revisionPtr revIDLastSave="353" documentId="8_{3E261E29-A1DC-4AC7-9AE9-7BE6C2A75354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F25F01AC-D08B-47DF-8136-5605497989BB}"/>
   <bookViews>
     <workbookView xWindow="165" yWindow="3570" windowWidth="21600" windowHeight="11355" xr2:uid="{8355E7AF-B006-48C4-BF9B-25D6A2537B13}"/>
   </bookViews>
@@ -50,6 +50,9 @@
     <t>Ingredient Price…</t>
   </si>
   <si>
+    <t>Assume everything is in grams / mls / no unit</t>
+  </si>
+  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -65,24 +68,36 @@
     <t>Cost to make</t>
   </si>
   <si>
+    <t>what is the ingredeint</t>
+  </si>
+  <si>
     <t>sheets</t>
   </si>
   <si>
     <t>Lasagne Sheets</t>
   </si>
   <si>
+    <t>how much are you using</t>
+  </si>
+  <si>
     <t>g</t>
   </si>
   <si>
     <t>Spaghetti Sauce</t>
   </si>
   <si>
+    <t>how much did you buy</t>
+  </si>
+  <si>
     <t>Mince</t>
   </si>
   <si>
     <t>kg</t>
   </si>
   <si>
+    <t>how much did it cost</t>
+  </si>
+  <si>
     <t>Cheddar Cheese</t>
   </si>
   <si>
@@ -98,34 +113,19 @@
     <t>Spinach</t>
   </si>
   <si>
+    <t>price / amount bought * amount needed (assumes units are the same)</t>
+  </si>
+  <si>
     <t>Butter</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
+    <t>price devide by amount bought x amount needed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Per Serve: </t>
-  </si>
-  <si>
-    <t>what is the ingredeint</t>
-  </si>
-  <si>
-    <t>how much are you using</t>
-  </si>
-  <si>
-    <t>how much did you buy</t>
-  </si>
-  <si>
-    <t>how much did it cost</t>
-  </si>
-  <si>
-    <t>Assume everything is in grams / mls / no unit</t>
-  </si>
-  <si>
-    <t>price / amount bought * amount needed (assumes units are the same)</t>
-  </si>
-  <si>
-    <t>price devide by amount bought x amount needed</t>
   </si>
 </sst>
 </file>
@@ -133,9 +133,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,9 +389,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -403,20 +403,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -744,10 +744,10 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -758,13 +758,13 @@
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26"/>
     </row>
-    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="21">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -772,7 +772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="26.25">
       <c r="A4" s="33" t="s">
         <v>2</v>
       </c>
@@ -785,44 +785,44 @@
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="J4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="G5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>5</v>
-      </c>
       <c r="H5" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="30">
         <v>5</v>
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H6" s="17">
         <f>E6/F6*A6</f>
         <v>2.5</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="10">
         <v>50</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" s="18">
         <v>3.5</v>
@@ -858,25 +858,25 @@
         <v>350</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H7" s="20">
         <f>E7/(F7/1000)*(A7/1000)</f>
         <v>0.5</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="10">
         <v>600</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E8" s="21">
         <v>25</v>
@@ -885,25 +885,25 @@
         <v>1</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H8" s="23">
         <f>E8/F8*(A8/1000)</f>
         <v>15</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="10">
         <v>100</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E9" s="18">
         <v>12</v>
@@ -912,22 +912,22 @@
         <v>750</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H9" s="20">
         <f>E9/(F9/1000)*(A9/1000)</f>
         <v>1.6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="10">
         <v>50</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E10" s="21">
         <v>4</v>
@@ -936,22 +936,22 @@
         <v>1</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H10" s="23">
         <f>E10/F10*(A10/1000)</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="10">
         <v>200</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E11" s="18">
         <v>5.5</v>
@@ -960,25 +960,25 @@
         <v>750</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H11" s="20">
         <f>E11/(F11/1000)*(A11/1000)</f>
         <v>1.4666666666666668</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="12">
         <v>25</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E12" s="24">
         <v>4</v>
@@ -987,30 +987,30 @@
         <v>500</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H12" s="20">
         <f>E12/(F12/1000)*(A12/1000)</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
       <c r="G14" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H14" s="5">
         <f>SUM(H6:H13)</f>
         <v>21.466666666666665</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" thickTop="1">
       <c r="J15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="21">
+      <c r="F16" s="32" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="F16" s="32" t="s">
-        <v>22</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="3">
@@ -1030,12 +1030,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005BA463C036C06F4F95EEE3DD0F4493E9" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="25aed4aa70de01e274ca06c80e31bb12">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2ba0c6a2-e197-4036-966a-a529f7e95fa3" xmlns:ns4="e03aa4bf-b6ec-416e-afe3-ff8a06fe72c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12385f472dc4d7d3e3f800da863c87cd" ns3:_="" ns4:_="">
     <xsd:import namespace="2ba0c6a2-e197-4036-966a-a529f7e95fa3"/>
@@ -1258,6 +1252,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1268,37 +1268,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A591B0A6-E1E7-46D9-954A-504B018E464E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F04F32-E9AB-4361-B681-388B8D86E463}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F04F32-E9AB-4361-B681-388B8D86E463}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2ba0c6a2-e197-4036-966a-a529f7e95fa3"/>
-    <ds:schemaRef ds:uri="e03aa4bf-b6ec-416e-afe3-ff8a06fe72c1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A591B0A6-E1E7-46D9-954A-504B018E464E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFB6493B-6CF8-4398-8D4D-A9E17E83D758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFB6493B-6CF8-4398-8D4D-A9E17E83D758}"/>
 </file>